--- a/229706_Grafici/Numbers.xlsx
+++ b/229706_Grafici/Numbers.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="229705" sheetId="1" r:id="rId1"/>
     <sheet name="229706" sheetId="2" r:id="rId2"/>
+    <sheet name="229707" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="52">
   <si>
     <t>Punto A</t>
   </si>
@@ -118,6 +119,72 @@
   </si>
   <si>
     <t>t2=5064,87</t>
+  </si>
+  <si>
+    <t>t1=4518,87</t>
+  </si>
+  <si>
+    <t>t2=4523,48</t>
+  </si>
+  <si>
+    <t>646.2</t>
+  </si>
+  <si>
+    <t>136.2</t>
+  </si>
+  <si>
+    <t>898.3</t>
+  </si>
+  <si>
+    <t>162.0</t>
+  </si>
+  <si>
+    <t>1190.8</t>
+  </si>
+  <si>
+    <t>189.3</t>
+  </si>
+  <si>
+    <t>t1=4227,34</t>
+  </si>
+  <si>
+    <t>t2=4231,95</t>
+  </si>
+  <si>
+    <t>1530.5</t>
+  </si>
+  <si>
+    <t>215.1</t>
+  </si>
+  <si>
+    <t>550.9</t>
+  </si>
+  <si>
+    <t>121.7</t>
+  </si>
+  <si>
+    <t>851.4</t>
+  </si>
+  <si>
+    <t>157.4</t>
+  </si>
+  <si>
+    <t>1249.3</t>
+  </si>
+  <si>
+    <t>195.8</t>
+  </si>
+  <si>
+    <t>t1=6769,88</t>
+  </si>
+  <si>
+    <t>t2=6774,34</t>
+  </si>
+  <si>
+    <t>1614.7</t>
+  </si>
+  <si>
+    <t>225.0</t>
   </si>
 </sst>
 </file>
@@ -127,7 +194,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -135,13 +202,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -236,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -275,6 +356,43 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1011,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1564,6 +1682,399 @@
       <c r="I22" t="s">
         <v>29</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="8">
+        <v>1315</v>
+      </c>
+      <c r="C4" s="11">
+        <v>663</v>
+      </c>
+      <c r="D4" s="10">
+        <v>137.4</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1252</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1252</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="8">
+        <v>1551</v>
+      </c>
+      <c r="C5" s="11">
+        <v>902.9</v>
+      </c>
+      <c r="D5" s="10">
+        <v>162</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1503</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1503</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="8">
+        <v>1804</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1202.2</v>
+      </c>
+      <c r="D6" s="10">
+        <v>189.3</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1750</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1802</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="12">
+        <v>2053</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1538.2</v>
+      </c>
+      <c r="D7" s="14">
+        <v>216.3</v>
+      </c>
+      <c r="E7" s="12">
+        <v>2005</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="12">
+        <v>2055</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="8"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="8"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="8"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="8"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="8"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="8"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="9">
